--- a/Case Studies/Career Development/Career Development.xlsx
+++ b/Case Studies/Career Development/Career Development.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\GFreeze\gender\Case Studies\Career Development\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\gender\Case Studies\Career Development\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EC2C26C-DFBD-4B83-B3DA-29C42431E6B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4A28837-7018-4E54-89D1-6CDF536F158A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="291" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="291" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ChatGPT" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2669" uniqueCount="873">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2670" uniqueCount="872">
   <si>
     <t>Dr. Lisa Carter</t>
   </si>
@@ -2384,9 +2384,6 @@
   </si>
   <si>
     <t>Diversifying Income Streams, Specializing in a niche of graphic design</t>
-  </si>
-  <si>
-    <t>Canadian</t>
   </si>
   <si>
     <t>Indigenous (First Nations)</t>
@@ -3123,6 +3120,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3163,15 +3169,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3464,7 +3461,7 @@
   <dimension ref="B1:R107"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3508,39 +3505,39 @@
       <c r="R1" s="9"/>
     </row>
     <row r="2" spans="2:18" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="35" t="s">
         <v>246</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="37" t="s">
         <v>307</v>
       </c>
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="43" t="s">
         <v>266</v>
       </c>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="37" t="s">
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="40" t="s">
         <v>267</v>
       </c>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
       <c r="P2" s="21"/>
-      <c r="Q2" s="34" t="s">
+      <c r="Q2" s="37" t="s">
         <v>308</v>
       </c>
-      <c r="R2" s="38" t="s">
+      <c r="R2" s="41" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="3" spans="2:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="33"/>
-      <c r="C3" s="35"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="38"/>
       <c r="D3" s="11" t="s">
         <v>268</v>
       </c>
@@ -3580,11 +3577,11 @@
       <c r="P3" s="12" t="s">
         <v>276</v>
       </c>
-      <c r="Q3" s="35"/>
-      <c r="R3" s="39"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="42"/>
     </row>
     <row r="4" spans="2:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="30">
+      <c r="B4" s="33">
         <v>1</v>
       </c>
       <c r="C4" s="4">
@@ -3637,7 +3634,7 @@
       </c>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B5" s="30"/>
+      <c r="B5" s="33"/>
       <c r="C5" s="4">
         <v>2</v>
       </c>
@@ -3688,7 +3685,7 @@
       </c>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B6" s="30"/>
+      <c r="B6" s="33"/>
       <c r="C6" s="4">
         <v>3</v>
       </c>
@@ -3739,7 +3736,7 @@
       </c>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B7" s="30"/>
+      <c r="B7" s="33"/>
       <c r="C7" s="4">
         <v>4</v>
       </c>
@@ -3773,7 +3770,9 @@
       <c r="M7" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="N7" s="17"/>
+      <c r="N7" s="17" t="s">
+        <v>26</v>
+      </c>
       <c r="O7" s="17" t="s">
         <v>30</v>
       </c>
@@ -3788,7 +3787,7 @@
       </c>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B8" s="36"/>
+      <c r="B8" s="39"/>
       <c r="C8" s="5">
         <v>5</v>
       </c>
@@ -3839,7 +3838,7 @@
       </c>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B9" s="29">
+      <c r="B9" s="32">
         <v>2</v>
       </c>
       <c r="C9" s="6">
@@ -3892,7 +3891,7 @@
       </c>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B10" s="30"/>
+      <c r="B10" s="33"/>
       <c r="C10" s="4">
         <v>2</v>
       </c>
@@ -3943,7 +3942,7 @@
       </c>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B11" s="30"/>
+      <c r="B11" s="33"/>
       <c r="C11" s="4">
         <v>3</v>
       </c>
@@ -3986,7 +3985,7 @@
       <c r="P11" s="13" t="s">
         <v>282</v>
       </c>
-      <c r="Q11" s="43" t="s">
+      <c r="Q11" s="29" t="s">
         <v>64</v>
       </c>
       <c r="R11" s="22" t="s">
@@ -3994,7 +3993,7 @@
       </c>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B12" s="30"/>
+      <c r="B12" s="33"/>
       <c r="C12" s="4">
         <v>4</v>
       </c>
@@ -4045,7 +4044,7 @@
       </c>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B13" s="36"/>
+      <c r="B13" s="39"/>
       <c r="C13" s="5">
         <v>5</v>
       </c>
@@ -4096,7 +4095,7 @@
       </c>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B14" s="29">
+      <c r="B14" s="32">
         <v>3</v>
       </c>
       <c r="C14" s="6">
@@ -4149,7 +4148,7 @@
       </c>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B15" s="30"/>
+      <c r="B15" s="33"/>
       <c r="C15" s="4">
         <v>2</v>
       </c>
@@ -4200,7 +4199,7 @@
       </c>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B16" s="30"/>
+      <c r="B16" s="33"/>
       <c r="C16" s="4">
         <v>3</v>
       </c>
@@ -4251,7 +4250,7 @@
       </c>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B17" s="30"/>
+      <c r="B17" s="33"/>
       <c r="C17" s="4">
         <v>4</v>
       </c>
@@ -4294,7 +4293,7 @@
       <c r="P17" s="13" t="s">
         <v>278</v>
       </c>
-      <c r="Q17" s="43" t="s">
+      <c r="Q17" s="29" t="s">
         <v>64</v>
       </c>
       <c r="R17" s="22" t="s">
@@ -4302,7 +4301,7 @@
       </c>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B18" s="36"/>
+      <c r="B18" s="39"/>
       <c r="C18" s="5">
         <v>5</v>
       </c>
@@ -4353,7 +4352,7 @@
       </c>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B19" s="29">
+      <c r="B19" s="32">
         <v>4</v>
       </c>
       <c r="C19" s="6">
@@ -4406,7 +4405,7 @@
       </c>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B20" s="30"/>
+      <c r="B20" s="33"/>
       <c r="C20" s="4">
         <v>2</v>
       </c>
@@ -4457,7 +4456,7 @@
       </c>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B21" s="30"/>
+      <c r="B21" s="33"/>
       <c r="C21" s="4">
         <v>3</v>
       </c>
@@ -4508,7 +4507,7 @@
       </c>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B22" s="30"/>
+      <c r="B22" s="33"/>
       <c r="C22" s="4">
         <v>4</v>
       </c>
@@ -4551,7 +4550,7 @@
       <c r="P22" s="13" t="s">
         <v>278</v>
       </c>
-      <c r="Q22" s="43" t="s">
+      <c r="Q22" s="29" t="s">
         <v>258</v>
       </c>
       <c r="R22" s="22" t="s">
@@ -4559,7 +4558,7 @@
       </c>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B23" s="36"/>
+      <c r="B23" s="39"/>
       <c r="C23" s="5">
         <v>5</v>
       </c>
@@ -4610,7 +4609,7 @@
       </c>
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B24" s="29">
+      <c r="B24" s="32">
         <v>5</v>
       </c>
       <c r="C24" s="6">
@@ -4663,7 +4662,7 @@
       </c>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B25" s="30"/>
+      <c r="B25" s="33"/>
       <c r="C25" s="4">
         <v>2</v>
       </c>
@@ -4714,7 +4713,7 @@
       </c>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B26" s="30"/>
+      <c r="B26" s="33"/>
       <c r="C26" s="4">
         <v>3</v>
       </c>
@@ -4757,7 +4756,7 @@
       <c r="P26" s="13" t="s">
         <v>278</v>
       </c>
-      <c r="Q26" s="43" t="s">
+      <c r="Q26" s="29" t="s">
         <v>143</v>
       </c>
       <c r="R26" s="22" t="s">
@@ -4765,7 +4764,7 @@
       </c>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B27" s="30"/>
+      <c r="B27" s="33"/>
       <c r="C27" s="4">
         <v>4</v>
       </c>
@@ -4816,7 +4815,7 @@
       </c>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B28" s="36"/>
+      <c r="B28" s="39"/>
       <c r="C28" s="5">
         <v>5</v>
       </c>
@@ -4867,7 +4866,7 @@
       </c>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B29" s="29">
+      <c r="B29" s="32">
         <v>6</v>
       </c>
       <c r="C29" s="6">
@@ -4920,7 +4919,7 @@
       </c>
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B30" s="30"/>
+      <c r="B30" s="33"/>
       <c r="C30" s="4">
         <v>2</v>
       </c>
@@ -4971,7 +4970,7 @@
       </c>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B31" s="30"/>
+      <c r="B31" s="33"/>
       <c r="C31" s="4">
         <v>3</v>
       </c>
@@ -5022,7 +5021,7 @@
       </c>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B32" s="30"/>
+      <c r="B32" s="33"/>
       <c r="C32" s="4">
         <v>4</v>
       </c>
@@ -5073,7 +5072,7 @@
       </c>
     </row>
     <row r="33" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B33" s="36"/>
+      <c r="B33" s="39"/>
       <c r="C33" s="5">
         <v>5</v>
       </c>
@@ -5124,7 +5123,7 @@
       </c>
     </row>
     <row r="34" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B34" s="29">
+      <c r="B34" s="32">
         <v>7</v>
       </c>
       <c r="C34" s="6">
@@ -5177,7 +5176,7 @@
       </c>
     </row>
     <row r="35" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B35" s="30"/>
+      <c r="B35" s="33"/>
       <c r="C35" s="4">
         <v>2</v>
       </c>
@@ -5220,7 +5219,7 @@
       <c r="P35" s="13" t="s">
         <v>278</v>
       </c>
-      <c r="Q35" s="43" t="s">
+      <c r="Q35" s="29" t="s">
         <v>314</v>
       </c>
       <c r="R35" s="22" t="s">
@@ -5228,7 +5227,7 @@
       </c>
     </row>
     <row r="36" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B36" s="30"/>
+      <c r="B36" s="33"/>
       <c r="C36" s="4">
         <v>3</v>
       </c>
@@ -5279,7 +5278,7 @@
       </c>
     </row>
     <row r="37" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B37" s="30"/>
+      <c r="B37" s="33"/>
       <c r="C37" s="4">
         <v>4</v>
       </c>
@@ -5330,7 +5329,7 @@
       </c>
     </row>
     <row r="38" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B38" s="36"/>
+      <c r="B38" s="39"/>
       <c r="C38" s="5">
         <v>5</v>
       </c>
@@ -5381,7 +5380,7 @@
       </c>
     </row>
     <row r="39" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B39" s="29">
+      <c r="B39" s="32">
         <v>8</v>
       </c>
       <c r="C39" s="6">
@@ -5434,7 +5433,7 @@
       </c>
     </row>
     <row r="40" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B40" s="30"/>
+      <c r="B40" s="33"/>
       <c r="C40" s="4">
         <v>2</v>
       </c>
@@ -5485,7 +5484,7 @@
       </c>
     </row>
     <row r="41" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B41" s="30"/>
+      <c r="B41" s="33"/>
       <c r="C41" s="4">
         <v>3</v>
       </c>
@@ -5536,7 +5535,7 @@
       </c>
     </row>
     <row r="42" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B42" s="30"/>
+      <c r="B42" s="33"/>
       <c r="C42" s="4">
         <v>4</v>
       </c>
@@ -5587,7 +5586,7 @@
       </c>
     </row>
     <row r="43" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B43" s="36"/>
+      <c r="B43" s="39"/>
       <c r="C43" s="5">
         <v>5</v>
       </c>
@@ -5630,7 +5629,7 @@
       <c r="P43" s="14" t="s">
         <v>278</v>
       </c>
-      <c r="Q43" s="44" t="s">
+      <c r="Q43" s="30" t="s">
         <v>64</v>
       </c>
       <c r="R43" s="22" t="s">
@@ -5638,7 +5637,7 @@
       </c>
     </row>
     <row r="44" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B44" s="29">
+      <c r="B44" s="32">
         <v>9</v>
       </c>
       <c r="C44" s="6">
@@ -5691,7 +5690,7 @@
       </c>
     </row>
     <row r="45" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B45" s="30"/>
+      <c r="B45" s="33"/>
       <c r="C45" s="4">
         <v>2</v>
       </c>
@@ -5742,7 +5741,7 @@
       </c>
     </row>
     <row r="46" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B46" s="30"/>
+      <c r="B46" s="33"/>
       <c r="C46" s="4">
         <v>3</v>
       </c>
@@ -5793,7 +5792,7 @@
       </c>
     </row>
     <row r="47" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B47" s="30"/>
+      <c r="B47" s="33"/>
       <c r="C47" s="4">
         <v>4</v>
       </c>
@@ -5844,7 +5843,7 @@
       </c>
     </row>
     <row r="48" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B48" s="36"/>
+      <c r="B48" s="39"/>
       <c r="C48" s="5">
         <v>5</v>
       </c>
@@ -5895,7 +5894,7 @@
       </c>
     </row>
     <row r="49" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B49" s="29">
+      <c r="B49" s="32">
         <v>10</v>
       </c>
       <c r="C49" s="6">
@@ -5948,7 +5947,7 @@
       </c>
     </row>
     <row r="50" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B50" s="30"/>
+      <c r="B50" s="33"/>
       <c r="C50" s="4">
         <v>2</v>
       </c>
@@ -5999,7 +5998,7 @@
       </c>
     </row>
     <row r="51" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B51" s="30"/>
+      <c r="B51" s="33"/>
       <c r="C51" s="4">
         <v>3</v>
       </c>
@@ -6050,7 +6049,7 @@
       </c>
     </row>
     <row r="52" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B52" s="30"/>
+      <c r="B52" s="33"/>
       <c r="C52" s="4">
         <v>4</v>
       </c>
@@ -6101,7 +6100,7 @@
       </c>
     </row>
     <row r="53" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="31"/>
+      <c r="B53" s="34"/>
       <c r="C53" s="10">
         <v>5</v>
       </c>
@@ -6554,8 +6553,8 @@
   </sheetPr>
   <dimension ref="B1:R107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q49" sqref="Q49"/>
+    <sheetView topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I49" sqref="I49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6593,39 +6592,39 @@
       <c r="R1" s="9"/>
     </row>
     <row r="2" spans="2:18" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="35" t="s">
         <v>246</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="37" t="s">
         <v>307</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="D2" s="44" t="s">
         <v>266</v>
       </c>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="37" t="s">
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="40" t="s">
         <v>267</v>
       </c>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
       <c r="P2" s="21"/>
-      <c r="Q2" s="34" t="s">
+      <c r="Q2" s="37" t="s">
         <v>308</v>
       </c>
-      <c r="R2" s="38" t="s">
+      <c r="R2" s="41" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="3" spans="2:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="33"/>
-      <c r="C3" s="35"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="38"/>
       <c r="D3" s="24" t="s">
         <v>268</v>
       </c>
@@ -6665,11 +6664,11 @@
       <c r="P3" s="12" t="s">
         <v>276</v>
       </c>
-      <c r="Q3" s="35"/>
-      <c r="R3" s="39"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="42"/>
     </row>
     <row r="4" spans="2:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="30">
+      <c r="B4" s="33">
         <v>1</v>
       </c>
       <c r="C4" s="4">
@@ -6722,7 +6721,7 @@
       </c>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B5" s="30"/>
+      <c r="B5" s="33"/>
       <c r="C5" s="4">
         <v>2</v>
       </c>
@@ -6773,7 +6772,7 @@
       </c>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B6" s="30"/>
+      <c r="B6" s="33"/>
       <c r="C6" s="4">
         <v>3</v>
       </c>
@@ -6824,7 +6823,7 @@
       </c>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B7" s="30"/>
+      <c r="B7" s="33"/>
       <c r="C7" s="4">
         <v>4</v>
       </c>
@@ -6867,7 +6866,7 @@
       <c r="P7" s="13" t="s">
         <v>504</v>
       </c>
-      <c r="Q7" s="43" t="s">
+      <c r="Q7" s="29" t="s">
         <v>481</v>
       </c>
       <c r="R7" s="22" t="s">
@@ -6875,7 +6874,7 @@
       </c>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B8" s="36"/>
+      <c r="B8" s="39"/>
       <c r="C8" s="5">
         <v>5</v>
       </c>
@@ -6926,7 +6925,7 @@
       </c>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B9" s="29">
+      <c r="B9" s="32">
         <v>2</v>
       </c>
       <c r="C9" s="6">
@@ -6979,7 +6978,7 @@
       </c>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B10" s="30"/>
+      <c r="B10" s="33"/>
       <c r="C10" s="4">
         <v>2</v>
       </c>
@@ -7030,7 +7029,7 @@
       </c>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B11" s="30"/>
+      <c r="B11" s="33"/>
       <c r="C11" s="4">
         <v>3</v>
       </c>
@@ -7081,7 +7080,7 @@
       </c>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B12" s="30"/>
+      <c r="B12" s="33"/>
       <c r="C12" s="4">
         <v>4</v>
       </c>
@@ -7132,7 +7131,7 @@
       </c>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B13" s="36"/>
+      <c r="B13" s="39"/>
       <c r="C13" s="5">
         <v>5</v>
       </c>
@@ -7183,7 +7182,7 @@
       </c>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B14" s="29">
+      <c r="B14" s="32">
         <v>3</v>
       </c>
       <c r="C14" s="6">
@@ -7236,7 +7235,7 @@
       </c>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B15" s="30"/>
+      <c r="B15" s="33"/>
       <c r="C15" s="4">
         <v>2</v>
       </c>
@@ -7287,7 +7286,7 @@
       </c>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B16" s="30"/>
+      <c r="B16" s="33"/>
       <c r="C16" s="4">
         <v>3</v>
       </c>
@@ -7338,7 +7337,7 @@
       </c>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B17" s="30"/>
+      <c r="B17" s="33"/>
       <c r="C17" s="4">
         <v>4</v>
       </c>
@@ -7381,7 +7380,7 @@
       <c r="P17" s="13" t="s">
         <v>278</v>
       </c>
-      <c r="Q17" s="43" t="s">
+      <c r="Q17" s="29" t="s">
         <v>388</v>
       </c>
       <c r="R17" s="22" t="s">
@@ -7389,7 +7388,7 @@
       </c>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B18" s="36"/>
+      <c r="B18" s="39"/>
       <c r="C18" s="5">
         <v>5</v>
       </c>
@@ -7440,7 +7439,7 @@
       </c>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B19" s="29">
+      <c r="B19" s="32">
         <v>4</v>
       </c>
       <c r="C19" s="6">
@@ -7493,7 +7492,7 @@
       </c>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B20" s="30"/>
+      <c r="B20" s="33"/>
       <c r="C20" s="4">
         <v>2</v>
       </c>
@@ -7544,7 +7543,7 @@
       </c>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B21" s="30"/>
+      <c r="B21" s="33"/>
       <c r="C21" s="4">
         <v>3</v>
       </c>
@@ -7595,7 +7594,7 @@
       </c>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B22" s="30"/>
+      <c r="B22" s="33"/>
       <c r="C22" s="4">
         <v>4</v>
       </c>
@@ -7646,7 +7645,7 @@
       </c>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B23" s="36"/>
+      <c r="B23" s="39"/>
       <c r="C23" s="5">
         <v>5</v>
       </c>
@@ -7697,7 +7696,7 @@
       </c>
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B24" s="29">
+      <c r="B24" s="32">
         <v>5</v>
       </c>
       <c r="C24" s="6">
@@ -7750,7 +7749,7 @@
       </c>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B25" s="30"/>
+      <c r="B25" s="33"/>
       <c r="C25" s="4">
         <v>2</v>
       </c>
@@ -7801,7 +7800,7 @@
       </c>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B26" s="30"/>
+      <c r="B26" s="33"/>
       <c r="C26" s="4">
         <v>3</v>
       </c>
@@ -7852,7 +7851,7 @@
       </c>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B27" s="30"/>
+      <c r="B27" s="33"/>
       <c r="C27" s="4">
         <v>4</v>
       </c>
@@ -7903,7 +7902,7 @@
       </c>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B28" s="36"/>
+      <c r="B28" s="39"/>
       <c r="C28" s="5">
         <v>5</v>
       </c>
@@ -7954,7 +7953,7 @@
       </c>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B29" s="29">
+      <c r="B29" s="32">
         <v>6</v>
       </c>
       <c r="C29" s="6">
@@ -8007,7 +8006,7 @@
       </c>
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B30" s="30"/>
+      <c r="B30" s="33"/>
       <c r="C30" s="4">
         <v>2</v>
       </c>
@@ -8058,7 +8057,7 @@
       </c>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B31" s="30"/>
+      <c r="B31" s="33"/>
       <c r="C31" s="4">
         <v>3</v>
       </c>
@@ -8109,7 +8108,7 @@
       </c>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B32" s="30"/>
+      <c r="B32" s="33"/>
       <c r="C32" s="4">
         <v>4</v>
       </c>
@@ -8160,7 +8159,7 @@
       </c>
     </row>
     <row r="33" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B33" s="36"/>
+      <c r="B33" s="39"/>
       <c r="C33" s="5">
         <v>5</v>
       </c>
@@ -8211,7 +8210,7 @@
       </c>
     </row>
     <row r="34" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B34" s="29">
+      <c r="B34" s="32">
         <v>7</v>
       </c>
       <c r="C34" s="6">
@@ -8264,7 +8263,7 @@
       </c>
     </row>
     <row r="35" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B35" s="30"/>
+      <c r="B35" s="33"/>
       <c r="C35" s="4">
         <v>2</v>
       </c>
@@ -8315,7 +8314,7 @@
       </c>
     </row>
     <row r="36" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B36" s="30"/>
+      <c r="B36" s="33"/>
       <c r="C36" s="4">
         <v>3</v>
       </c>
@@ -8366,7 +8365,7 @@
       </c>
     </row>
     <row r="37" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B37" s="30"/>
+      <c r="B37" s="33"/>
       <c r="C37" s="4">
         <v>4</v>
       </c>
@@ -8417,7 +8416,7 @@
       </c>
     </row>
     <row r="38" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B38" s="36"/>
+      <c r="B38" s="39"/>
       <c r="C38" s="5">
         <v>5</v>
       </c>
@@ -8468,7 +8467,7 @@
       </c>
     </row>
     <row r="39" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B39" s="29">
+      <c r="B39" s="32">
         <v>8</v>
       </c>
       <c r="C39" s="6">
@@ -8521,7 +8520,7 @@
       </c>
     </row>
     <row r="40" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B40" s="30"/>
+      <c r="B40" s="33"/>
       <c r="C40" s="4">
         <v>2</v>
       </c>
@@ -8572,7 +8571,7 @@
       </c>
     </row>
     <row r="41" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B41" s="30"/>
+      <c r="B41" s="33"/>
       <c r="C41" s="4">
         <v>3</v>
       </c>
@@ -8623,7 +8622,7 @@
       </c>
     </row>
     <row r="42" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B42" s="30"/>
+      <c r="B42" s="33"/>
       <c r="C42" s="4">
         <v>4</v>
       </c>
@@ -8674,7 +8673,7 @@
       </c>
     </row>
     <row r="43" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B43" s="36"/>
+      <c r="B43" s="39"/>
       <c r="C43" s="5">
         <v>5</v>
       </c>
@@ -8717,7 +8716,7 @@
       <c r="P43" s="14" t="s">
         <v>520</v>
       </c>
-      <c r="Q43" s="44" t="s">
+      <c r="Q43" s="30" t="s">
         <v>454</v>
       </c>
       <c r="R43" s="22" t="s">
@@ -8725,7 +8724,7 @@
       </c>
     </row>
     <row r="44" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B44" s="29">
+      <c r="B44" s="32">
         <v>9</v>
       </c>
       <c r="C44" s="6">
@@ -8776,7 +8775,7 @@
       </c>
     </row>
     <row r="45" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B45" s="30"/>
+      <c r="B45" s="33"/>
       <c r="C45" s="4">
         <v>2</v>
       </c>
@@ -8825,7 +8824,7 @@
       </c>
     </row>
     <row r="46" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B46" s="30"/>
+      <c r="B46" s="33"/>
       <c r="C46" s="4">
         <v>3</v>
       </c>
@@ -8837,7 +8836,7 @@
         <v>38</v>
       </c>
       <c r="G46" s="17" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="H46" s="17" t="s">
         <v>26</v>
@@ -8874,7 +8873,7 @@
       </c>
     </row>
     <row r="47" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B47" s="30"/>
+      <c r="B47" s="33"/>
       <c r="C47" s="4">
         <v>4</v>
       </c>
@@ -8923,7 +8922,7 @@
       </c>
     </row>
     <row r="48" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B48" s="36"/>
+      <c r="B48" s="39"/>
       <c r="C48" s="5">
         <v>5</v>
       </c>
@@ -8972,7 +8971,7 @@
       </c>
     </row>
     <row r="49" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B49" s="29">
+      <c r="B49" s="32">
         <v>10</v>
       </c>
       <c r="C49" s="6">
@@ -9017,7 +9016,7 @@
       <c r="P49" s="15" t="s">
         <v>506</v>
       </c>
-      <c r="Q49" s="45" t="s">
+      <c r="Q49" s="31" t="s">
         <v>549</v>
       </c>
       <c r="R49" s="22" t="s">
@@ -9025,7 +9024,7 @@
       </c>
     </row>
     <row r="50" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B50" s="30"/>
+      <c r="B50" s="33"/>
       <c r="C50" s="4">
         <v>2</v>
       </c>
@@ -9076,7 +9075,7 @@
       </c>
     </row>
     <row r="51" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B51" s="30"/>
+      <c r="B51" s="33"/>
       <c r="C51" s="4">
         <v>3</v>
       </c>
@@ -9127,7 +9126,7 @@
       </c>
     </row>
     <row r="52" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B52" s="30"/>
+      <c r="B52" s="33"/>
       <c r="C52" s="4">
         <v>4</v>
       </c>
@@ -9178,7 +9177,7 @@
       </c>
     </row>
     <row r="53" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="31"/>
+      <c r="B53" s="34"/>
       <c r="C53" s="10">
         <v>5</v>
       </c>
@@ -9631,8 +9630,8 @@
   </sheetPr>
   <dimension ref="B1:R107"/>
   <sheetViews>
-    <sheetView topLeftCell="D24" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q56" sqref="Q56"/>
+    <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M41" sqref="M41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9670,39 +9669,39 @@
       <c r="R1" s="9"/>
     </row>
     <row r="2" spans="2:18" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="35" t="s">
         <v>246</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="37" t="s">
         <v>307</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="D2" s="44" t="s">
         <v>266</v>
       </c>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="37" t="s">
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="40" t="s">
         <v>267</v>
       </c>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
       <c r="P2" s="21"/>
-      <c r="Q2" s="34" t="s">
+      <c r="Q2" s="37" t="s">
         <v>308</v>
       </c>
-      <c r="R2" s="38" t="s">
+      <c r="R2" s="41" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="3" spans="2:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="33"/>
-      <c r="C3" s="35"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="38"/>
       <c r="D3" s="24" t="s">
         <v>268</v>
       </c>
@@ -9742,11 +9741,11 @@
       <c r="P3" s="12" t="s">
         <v>276</v>
       </c>
-      <c r="Q3" s="35"/>
-      <c r="R3" s="39"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="42"/>
     </row>
     <row r="4" spans="2:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="30">
+      <c r="B4" s="33">
         <v>1</v>
       </c>
       <c r="C4" s="4">
@@ -9799,7 +9798,7 @@
       </c>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B5" s="30"/>
+      <c r="B5" s="33"/>
       <c r="C5" s="4">
         <v>2</v>
       </c>
@@ -9850,7 +9849,7 @@
       </c>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B6" s="30"/>
+      <c r="B6" s="33"/>
       <c r="C6" s="4">
         <v>3</v>
       </c>
@@ -9901,7 +9900,7 @@
       </c>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B7" s="30"/>
+      <c r="B7" s="33"/>
       <c r="C7" s="4">
         <v>4</v>
       </c>
@@ -9952,7 +9951,7 @@
       </c>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B8" s="36"/>
+      <c r="B8" s="39"/>
       <c r="C8" s="5">
         <v>5</v>
       </c>
@@ -10003,7 +10002,7 @@
       </c>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B9" s="29">
+      <c r="B9" s="32">
         <v>2</v>
       </c>
       <c r="C9" s="6">
@@ -10056,7 +10055,7 @@
       </c>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B10" s="30"/>
+      <c r="B10" s="33"/>
       <c r="C10" s="4">
         <v>2</v>
       </c>
@@ -10107,7 +10106,7 @@
       </c>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B11" s="30"/>
+      <c r="B11" s="33"/>
       <c r="C11" s="4">
         <v>3</v>
       </c>
@@ -10158,7 +10157,7 @@
       </c>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B12" s="30"/>
+      <c r="B12" s="33"/>
       <c r="C12" s="4">
         <v>4</v>
       </c>
@@ -10209,7 +10208,7 @@
       </c>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B13" s="36"/>
+      <c r="B13" s="39"/>
       <c r="C13" s="5">
         <v>5</v>
       </c>
@@ -10260,7 +10259,7 @@
       </c>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B14" s="29">
+      <c r="B14" s="32">
         <v>3</v>
       </c>
       <c r="C14" s="6">
@@ -10313,7 +10312,7 @@
       </c>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B15" s="30"/>
+      <c r="B15" s="33"/>
       <c r="C15" s="4">
         <v>2</v>
       </c>
@@ -10364,7 +10363,7 @@
       </c>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B16" s="30"/>
+      <c r="B16" s="33"/>
       <c r="C16" s="4">
         <v>3</v>
       </c>
@@ -10415,7 +10414,7 @@
       </c>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B17" s="30"/>
+      <c r="B17" s="33"/>
       <c r="C17" s="4">
         <v>4</v>
       </c>
@@ -10466,7 +10465,7 @@
       </c>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B18" s="36"/>
+      <c r="B18" s="39"/>
       <c r="C18" s="5">
         <v>5</v>
       </c>
@@ -10517,7 +10516,7 @@
       </c>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B19" s="29">
+      <c r="B19" s="32">
         <v>4</v>
       </c>
       <c r="C19" s="6">
@@ -10570,7 +10569,7 @@
       </c>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B20" s="30"/>
+      <c r="B20" s="33"/>
       <c r="C20" s="4">
         <v>2</v>
       </c>
@@ -10621,7 +10620,7 @@
       </c>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B21" s="30"/>
+      <c r="B21" s="33"/>
       <c r="C21" s="4">
         <v>3</v>
       </c>
@@ -10672,7 +10671,7 @@
       </c>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B22" s="30"/>
+      <c r="B22" s="33"/>
       <c r="C22" s="4">
         <v>4</v>
       </c>
@@ -10723,7 +10722,7 @@
       </c>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B23" s="36"/>
+      <c r="B23" s="39"/>
       <c r="C23" s="5">
         <v>5</v>
       </c>
@@ -10774,7 +10773,7 @@
       </c>
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B24" s="29">
+      <c r="B24" s="32">
         <v>5</v>
       </c>
       <c r="C24" s="6">
@@ -10827,7 +10826,7 @@
       </c>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B25" s="30"/>
+      <c r="B25" s="33"/>
       <c r="C25" s="4">
         <v>2</v>
       </c>
@@ -10878,7 +10877,7 @@
       </c>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B26" s="30"/>
+      <c r="B26" s="33"/>
       <c r="C26" s="4">
         <v>3</v>
       </c>
@@ -10929,7 +10928,7 @@
       </c>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B27" s="30"/>
+      <c r="B27" s="33"/>
       <c r="C27" s="4">
         <v>4</v>
       </c>
@@ -10980,7 +10979,7 @@
       </c>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B28" s="36"/>
+      <c r="B28" s="39"/>
       <c r="C28" s="5">
         <v>5</v>
       </c>
@@ -11031,7 +11030,7 @@
       </c>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B29" s="29">
+      <c r="B29" s="32">
         <v>6</v>
       </c>
       <c r="C29" s="6">
@@ -11084,7 +11083,7 @@
       </c>
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B30" s="30"/>
+      <c r="B30" s="33"/>
       <c r="C30" s="4">
         <v>2</v>
       </c>
@@ -11135,7 +11134,7 @@
       </c>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B31" s="30"/>
+      <c r="B31" s="33"/>
       <c r="C31" s="4">
         <v>3</v>
       </c>
@@ -11186,7 +11185,7 @@
       </c>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B32" s="30"/>
+      <c r="B32" s="33"/>
       <c r="C32" s="4">
         <v>4</v>
       </c>
@@ -11237,7 +11236,7 @@
       </c>
     </row>
     <row r="33" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B33" s="36"/>
+      <c r="B33" s="39"/>
       <c r="C33" s="5">
         <v>5</v>
       </c>
@@ -11288,7 +11287,7 @@
       </c>
     </row>
     <row r="34" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B34" s="29">
+      <c r="B34" s="32">
         <v>7</v>
       </c>
       <c r="C34" s="6">
@@ -11341,7 +11340,7 @@
       </c>
     </row>
     <row r="35" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B35" s="30"/>
+      <c r="B35" s="33"/>
       <c r="C35" s="4">
         <v>2</v>
       </c>
@@ -11392,7 +11391,7 @@
       </c>
     </row>
     <row r="36" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B36" s="30"/>
+      <c r="B36" s="33"/>
       <c r="C36" s="4">
         <v>3</v>
       </c>
@@ -11443,7 +11442,7 @@
       </c>
     </row>
     <row r="37" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B37" s="30"/>
+      <c r="B37" s="33"/>
       <c r="C37" s="4">
         <v>4</v>
       </c>
@@ -11494,7 +11493,7 @@
       </c>
     </row>
     <row r="38" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B38" s="36"/>
+      <c r="B38" s="39"/>
       <c r="C38" s="5">
         <v>5</v>
       </c>
@@ -11545,7 +11544,7 @@
       </c>
     </row>
     <row r="39" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B39" s="29">
+      <c r="B39" s="32">
         <v>8</v>
       </c>
       <c r="C39" s="6">
@@ -11598,7 +11597,7 @@
       </c>
     </row>
     <row r="40" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B40" s="30"/>
+      <c r="B40" s="33"/>
       <c r="C40" s="4">
         <v>2</v>
       </c>
@@ -11649,7 +11648,7 @@
       </c>
     </row>
     <row r="41" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B41" s="30"/>
+      <c r="B41" s="33"/>
       <c r="C41" s="4">
         <v>3</v>
       </c>
@@ -11700,7 +11699,7 @@
       </c>
     </row>
     <row r="42" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B42" s="30"/>
+      <c r="B42" s="33"/>
       <c r="C42" s="4">
         <v>4</v>
       </c>
@@ -11751,7 +11750,7 @@
       </c>
     </row>
     <row r="43" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B43" s="36"/>
+      <c r="B43" s="39"/>
       <c r="C43" s="5">
         <v>5</v>
       </c>
@@ -11802,7 +11801,7 @@
       </c>
     </row>
     <row r="44" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B44" s="29">
+      <c r="B44" s="32">
         <v>9</v>
       </c>
       <c r="C44" s="6">
@@ -11855,7 +11854,7 @@
       </c>
     </row>
     <row r="45" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B45" s="30"/>
+      <c r="B45" s="33"/>
       <c r="C45" s="4">
         <v>2</v>
       </c>
@@ -11906,7 +11905,7 @@
       </c>
     </row>
     <row r="46" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B46" s="30"/>
+      <c r="B46" s="33"/>
       <c r="C46" s="4">
         <v>3</v>
       </c>
@@ -11957,7 +11956,7 @@
       </c>
     </row>
     <row r="47" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B47" s="30"/>
+      <c r="B47" s="33"/>
       <c r="C47" s="4">
         <v>4</v>
       </c>
@@ -12008,7 +12007,7 @@
       </c>
     </row>
     <row r="48" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B48" s="36"/>
+      <c r="B48" s="39"/>
       <c r="C48" s="5">
         <v>5</v>
       </c>
@@ -12059,7 +12058,7 @@
       </c>
     </row>
     <row r="49" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B49" s="29">
+      <c r="B49" s="32">
         <v>10</v>
       </c>
       <c r="C49" s="6">
@@ -12112,7 +12111,7 @@
       </c>
     </row>
     <row r="50" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B50" s="30"/>
+      <c r="B50" s="33"/>
       <c r="C50" s="4">
         <v>2</v>
       </c>
@@ -12163,7 +12162,7 @@
       </c>
     </row>
     <row r="51" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B51" s="30"/>
+      <c r="B51" s="33"/>
       <c r="C51" s="4">
         <v>3</v>
       </c>
@@ -12214,7 +12213,7 @@
       </c>
     </row>
     <row r="52" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B52" s="30"/>
+      <c r="B52" s="33"/>
       <c r="C52" s="4">
         <v>4</v>
       </c>
@@ -12265,7 +12264,7 @@
       </c>
     </row>
     <row r="53" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="31"/>
+      <c r="B53" s="34"/>
       <c r="C53" s="10">
         <v>5</v>
       </c>
@@ -12718,8 +12717,8 @@
   </sheetPr>
   <dimension ref="B1:R107"/>
   <sheetViews>
-    <sheetView topLeftCell="H20" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P35" sqref="P35"/>
+    <sheetView tabSelected="1" topLeftCell="D25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M51" sqref="M51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12757,39 +12756,39 @@
       <c r="R1" s="9"/>
     </row>
     <row r="2" spans="2:18" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="35" t="s">
         <v>246</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="37" t="s">
         <v>307</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="D2" s="44" t="s">
         <v>266</v>
       </c>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="37" t="s">
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="40" t="s">
         <v>267</v>
       </c>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
       <c r="P2" s="21"/>
-      <c r="Q2" s="34" t="s">
+      <c r="Q2" s="37" t="s">
         <v>308</v>
       </c>
-      <c r="R2" s="38" t="s">
+      <c r="R2" s="41" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="3" spans="2:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="33"/>
-      <c r="C3" s="35"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="38"/>
       <c r="D3" s="24" t="s">
         <v>268</v>
       </c>
@@ -12829,11 +12828,11 @@
       <c r="P3" s="12" t="s">
         <v>276</v>
       </c>
-      <c r="Q3" s="35"/>
-      <c r="R3" s="39"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="42"/>
     </row>
     <row r="4" spans="2:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="30">
+      <c r="B4" s="33">
         <v>1</v>
       </c>
       <c r="C4" s="4">
@@ -12886,7 +12885,7 @@
       </c>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B5" s="30"/>
+      <c r="B5" s="33"/>
       <c r="C5" s="4">
         <v>2</v>
       </c>
@@ -12937,7 +12936,7 @@
       </c>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B6" s="30"/>
+      <c r="B6" s="33"/>
       <c r="C6" s="4">
         <v>3</v>
       </c>
@@ -12988,7 +12987,7 @@
       </c>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B7" s="30"/>
+      <c r="B7" s="33"/>
       <c r="C7" s="4">
         <v>4</v>
       </c>
@@ -13029,7 +13028,7 @@
         <v>714</v>
       </c>
       <c r="P7" s="17" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="Q7" s="22" t="s">
         <v>715</v>
@@ -13039,7 +13038,7 @@
       </c>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B8" s="36"/>
+      <c r="B8" s="39"/>
       <c r="C8" s="5">
         <v>5</v>
       </c>
@@ -13080,7 +13079,7 @@
         <v>717</v>
       </c>
       <c r="P8" s="18" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="Q8" s="27" t="s">
         <v>718</v>
@@ -13090,7 +13089,7 @@
       </c>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B9" s="29">
+      <c r="B9" s="32">
         <v>2</v>
       </c>
       <c r="C9" s="6">
@@ -13143,7 +13142,7 @@
       </c>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B10" s="30"/>
+      <c r="B10" s="33"/>
       <c r="C10" s="4">
         <v>2</v>
       </c>
@@ -13184,7 +13183,7 @@
         <v>725</v>
       </c>
       <c r="P10" s="17" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="Q10" s="22" t="s">
         <v>726</v>
@@ -13194,7 +13193,7 @@
       </c>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B11" s="30"/>
+      <c r="B11" s="33"/>
       <c r="C11" s="4">
         <v>3</v>
       </c>
@@ -13235,7 +13234,7 @@
         <v>731</v>
       </c>
       <c r="P11" s="17" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="Q11" s="22" t="s">
         <v>732</v>
@@ -13245,7 +13244,7 @@
       </c>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B12" s="30"/>
+      <c r="B12" s="33"/>
       <c r="C12" s="4">
         <v>4</v>
       </c>
@@ -13296,7 +13295,7 @@
       </c>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B13" s="36"/>
+      <c r="B13" s="39"/>
       <c r="C13" s="5">
         <v>5</v>
       </c>
@@ -13337,7 +13336,7 @@
         <v>741</v>
       </c>
       <c r="P13" s="18" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="Q13" s="22" t="s">
         <v>742</v>
@@ -13347,7 +13346,7 @@
       </c>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B14" s="29">
+      <c r="B14" s="32">
         <v>3</v>
       </c>
       <c r="C14" s="6">
@@ -13400,7 +13399,7 @@
       </c>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B15" s="30"/>
+      <c r="B15" s="33"/>
       <c r="C15" s="4">
         <v>2</v>
       </c>
@@ -13451,7 +13450,7 @@
       </c>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B16" s="30"/>
+      <c r="B16" s="33"/>
       <c r="C16" s="4">
         <v>3</v>
       </c>
@@ -13502,7 +13501,7 @@
       </c>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B17" s="30"/>
+      <c r="B17" s="33"/>
       <c r="C17" s="4">
         <v>4</v>
       </c>
@@ -13553,7 +13552,7 @@
       </c>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B18" s="36"/>
+      <c r="B18" s="39"/>
       <c r="C18" s="5">
         <v>5</v>
       </c>
@@ -13604,7 +13603,7 @@
       </c>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B19" s="29">
+      <c r="B19" s="32">
         <v>4</v>
       </c>
       <c r="C19" s="6">
@@ -13657,7 +13656,7 @@
       </c>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B20" s="30"/>
+      <c r="B20" s="33"/>
       <c r="C20" s="4">
         <v>2</v>
       </c>
@@ -13708,7 +13707,7 @@
       </c>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B21" s="30"/>
+      <c r="B21" s="33"/>
       <c r="C21" s="4">
         <v>3</v>
       </c>
@@ -13759,7 +13758,7 @@
       </c>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B22" s="30"/>
+      <c r="B22" s="33"/>
       <c r="C22" s="4">
         <v>4</v>
       </c>
@@ -13810,7 +13809,7 @@
       </c>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B23" s="36"/>
+      <c r="B23" s="39"/>
       <c r="C23" s="5">
         <v>5</v>
       </c>
@@ -13861,7 +13860,7 @@
       </c>
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B24" s="29">
+      <c r="B24" s="32">
         <v>5</v>
       </c>
       <c r="C24" s="6">
@@ -13886,7 +13885,7 @@
         <v>705</v>
       </c>
       <c r="J24" s="19" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="K24" s="19" t="s">
         <v>275</v>
@@ -13914,12 +13913,12 @@
       </c>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B25" s="30"/>
+      <c r="B25" s="33"/>
       <c r="C25" s="4">
         <v>2</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="E25" s="17" t="s">
         <v>275</v>
@@ -13937,7 +13936,7 @@
         <v>778</v>
       </c>
       <c r="J25" s="17" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="K25" s="17" t="s">
         <v>274</v>
@@ -13965,12 +13964,12 @@
       </c>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B26" s="30"/>
+      <c r="B26" s="33"/>
       <c r="C26" s="4">
         <v>3</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="E26" s="17" t="s">
         <v>274</v>
@@ -13982,13 +13981,13 @@
         <v>101</v>
       </c>
       <c r="H26" s="17" t="s">
-        <v>780</v>
+        <v>18</v>
       </c>
       <c r="I26" s="13" t="s">
         <v>87</v>
       </c>
       <c r="J26" s="17" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="K26" s="17" t="s">
         <v>275</v>
@@ -13997,31 +13996,31 @@
         <v>40</v>
       </c>
       <c r="M26" s="17" t="s">
+        <v>780</v>
+      </c>
+      <c r="N26" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="O26" s="13" t="s">
         <v>781</v>
       </c>
-      <c r="N26" s="17" t="s">
-        <v>780</v>
-      </c>
-      <c r="O26" s="13" t="s">
+      <c r="P26" s="17" t="s">
+        <v>863</v>
+      </c>
+      <c r="Q26" s="22" t="s">
         <v>782</v>
       </c>
-      <c r="P26" s="17" t="s">
-        <v>864</v>
-      </c>
-      <c r="Q26" s="22" t="s">
-        <v>783</v>
-      </c>
       <c r="R26" s="22" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B27" s="30"/>
+      <c r="B27" s="33"/>
       <c r="C27" s="4">
         <v>4</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="E27" s="17" t="s">
         <v>275</v>
@@ -14033,13 +14032,13 @@
         <v>59</v>
       </c>
       <c r="H27" s="17" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I27" s="13" t="s">
         <v>648</v>
       </c>
       <c r="J27" s="17" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="K27" s="17" t="s">
         <v>274</v>
@@ -14048,31 +14047,31 @@
         <v>55</v>
       </c>
       <c r="M27" s="17" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="N27" s="17" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="O27" s="13" t="s">
         <v>30</v>
       </c>
       <c r="P27" s="17" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="Q27" s="22" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="R27" s="22" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B28" s="36"/>
+      <c r="B28" s="39"/>
       <c r="C28" s="5">
         <v>5</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E28" s="18" t="s">
         <v>274</v>
@@ -14090,7 +14089,7 @@
         <v>766</v>
       </c>
       <c r="J28" s="18" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="K28" s="18" t="s">
         <v>275</v>
@@ -14099,26 +14098,26 @@
         <v>25</v>
       </c>
       <c r="M28" s="18" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="N28" s="18" t="s">
         <v>777</v>
       </c>
       <c r="O28" s="14" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="P28" s="18" t="s">
         <v>680</v>
       </c>
       <c r="Q28" s="22" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="R28" s="22" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B29" s="29">
+      <c r="B29" s="32">
         <v>6</v>
       </c>
       <c r="C29" s="6">
@@ -14140,7 +14139,7 @@
         <v>2</v>
       </c>
       <c r="I29" s="15" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="J29" s="19" t="s">
         <v>355</v>
@@ -14158,25 +14157,25 @@
         <v>2</v>
       </c>
       <c r="O29" s="15" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="P29" s="19" t="s">
         <v>683</v>
       </c>
       <c r="Q29" s="28" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="R29" s="22" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B30" s="30"/>
+      <c r="B30" s="33"/>
       <c r="C30" s="4">
         <v>2</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="E30" s="17" t="s">
         <v>274</v>
@@ -14185,13 +14184,13 @@
         <v>28</v>
       </c>
       <c r="G30" s="17" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="H30" s="17" t="s">
         <v>18</v>
       </c>
       <c r="I30" s="13" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="J30" s="17" t="s">
         <v>722</v>
@@ -14209,20 +14208,20 @@
         <v>18</v>
       </c>
       <c r="O30" s="13" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="P30" s="17" t="s">
         <v>681</v>
       </c>
       <c r="Q30" s="22" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="R30" s="22" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B31" s="30"/>
+      <c r="B31" s="33"/>
       <c r="C31" s="4">
         <v>3</v>
       </c>
@@ -14236,16 +14235,16 @@
         <v>45</v>
       </c>
       <c r="G31" s="17" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="H31" s="17" t="s">
         <v>10</v>
       </c>
       <c r="I31" s="13" t="s">
+        <v>797</v>
+      </c>
+      <c r="J31" s="17" t="s">
         <v>798</v>
-      </c>
-      <c r="J31" s="17" t="s">
-        <v>799</v>
       </c>
       <c r="K31" s="17" t="s">
         <v>275</v>
@@ -14260,20 +14259,20 @@
         <v>10</v>
       </c>
       <c r="O31" s="13" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="P31" s="17" t="s">
         <v>515</v>
       </c>
       <c r="Q31" s="22" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="R31" s="22" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B32" s="30"/>
+      <c r="B32" s="33"/>
       <c r="C32" s="4">
         <v>4</v>
       </c>
@@ -14293,7 +14292,7 @@
         <v>79</v>
       </c>
       <c r="I32" s="13" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="J32" s="17" t="s">
         <v>657</v>
@@ -14311,25 +14310,25 @@
         <v>79</v>
       </c>
       <c r="O32" s="13" t="s">
+        <v>802</v>
+      </c>
+      <c r="P32" s="17" t="s">
+        <v>864</v>
+      </c>
+      <c r="Q32" s="22" t="s">
         <v>803</v>
       </c>
-      <c r="P32" s="17" t="s">
-        <v>865</v>
-      </c>
-      <c r="Q32" s="22" t="s">
-        <v>804</v>
-      </c>
       <c r="R32" s="22" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="33" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B33" s="36"/>
+      <c r="B33" s="39"/>
       <c r="C33" s="5">
         <v>5</v>
       </c>
       <c r="D33" s="18" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E33" s="18" t="s">
         <v>275</v>
@@ -14338,7 +14337,7 @@
         <v>50</v>
       </c>
       <c r="G33" s="18" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="H33" s="18" t="s">
         <v>34</v>
@@ -14347,7 +14346,7 @@
         <v>56</v>
       </c>
       <c r="J33" s="18" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="K33" s="18" t="s">
         <v>274</v>
@@ -14362,27 +14361,27 @@
         <v>34</v>
       </c>
       <c r="O33" s="14" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="P33" s="18" t="s">
         <v>526</v>
       </c>
       <c r="Q33" s="27" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="R33" s="22" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="34" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B34" s="29">
+      <c r="B34" s="32">
         <v>7</v>
       </c>
       <c r="C34" s="6">
         <v>1</v>
       </c>
       <c r="D34" s="19" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E34" s="19" t="s">
         <v>274</v>
@@ -14418,22 +14417,22 @@
         <v>6</v>
       </c>
       <c r="P34" s="19" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="Q34" s="22" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="R34" s="22" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="35" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B35" s="30"/>
+      <c r="B35" s="33"/>
       <c r="C35" s="4">
         <v>2</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E35" s="17" t="s">
         <v>274</v>
@@ -14472,19 +14471,19 @@
         <v>708</v>
       </c>
       <c r="Q35" s="22" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="R35" s="22" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="36" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B36" s="30"/>
+      <c r="B36" s="33"/>
       <c r="C36" s="4">
         <v>3</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E36" s="17" t="s">
         <v>274</v>
@@ -14502,7 +14501,7 @@
         <v>705</v>
       </c>
       <c r="J36" s="17" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="K36" s="17" t="s">
         <v>275</v>
@@ -14520,22 +14519,22 @@
         <v>759</v>
       </c>
       <c r="P36" s="17" t="s">
+        <v>813</v>
+      </c>
+      <c r="Q36" s="22" t="s">
         <v>814</v>
       </c>
-      <c r="Q36" s="22" t="s">
-        <v>815</v>
-      </c>
       <c r="R36" s="22" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="37" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B37" s="30"/>
+      <c r="B37" s="33"/>
       <c r="C37" s="4">
         <v>4</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E37" s="17" t="s">
         <v>274</v>
@@ -14553,7 +14552,7 @@
         <v>705</v>
       </c>
       <c r="J37" s="17" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="K37" s="17" t="s">
         <v>274</v>
@@ -14562,31 +14561,31 @@
         <v>25</v>
       </c>
       <c r="M37" s="17" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="N37" s="17" t="s">
         <v>79</v>
       </c>
       <c r="O37" s="13" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="P37" s="17" t="s">
         <v>278</v>
       </c>
       <c r="Q37" s="22" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="R37" s="22" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="38" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B38" s="36"/>
+      <c r="B38" s="39"/>
       <c r="C38" s="5">
         <v>5</v>
       </c>
       <c r="D38" s="18" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E38" s="18" t="s">
         <v>274</v>
@@ -14604,7 +14603,7 @@
         <v>705</v>
       </c>
       <c r="J38" s="18" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="K38" s="18" t="s">
         <v>275</v>
@@ -14619,20 +14618,20 @@
         <v>26</v>
       </c>
       <c r="O38" s="14" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="P38" s="18" t="s">
+        <v>865</v>
+      </c>
+      <c r="Q38" s="27" t="s">
         <v>866</v>
       </c>
-      <c r="Q38" s="27" t="s">
-        <v>867</v>
-      </c>
       <c r="R38" s="22" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="39" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B39" s="29">
+      <c r="B39" s="32">
         <v>8</v>
       </c>
       <c r="C39" s="6">
@@ -14678,14 +14677,14 @@
         <v>278</v>
       </c>
       <c r="Q39" s="22" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="R39" s="22" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="40" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B40" s="30"/>
+      <c r="B40" s="33"/>
       <c r="C40" s="4">
         <v>2</v>
       </c>
@@ -14726,17 +14725,17 @@
         <v>407</v>
       </c>
       <c r="P40" s="17" t="s">
+        <v>819</v>
+      </c>
+      <c r="Q40" s="22" t="s">
         <v>820</v>
       </c>
-      <c r="Q40" s="22" t="s">
-        <v>821</v>
-      </c>
       <c r="R40" s="22" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="41" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B41" s="30"/>
+      <c r="B41" s="33"/>
       <c r="C41" s="4">
         <v>3</v>
       </c>
@@ -14774,20 +14773,20 @@
         <v>18</v>
       </c>
       <c r="O41" s="13" t="s">
+        <v>821</v>
+      </c>
+      <c r="P41" s="17" t="s">
         <v>822</v>
       </c>
-      <c r="P41" s="17" t="s">
+      <c r="Q41" s="22" t="s">
         <v>823</v>
       </c>
-      <c r="Q41" s="22" t="s">
-        <v>824</v>
-      </c>
       <c r="R41" s="22" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="42" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B42" s="30"/>
+      <c r="B42" s="33"/>
       <c r="C42" s="4">
         <v>4</v>
       </c>
@@ -14828,17 +14827,17 @@
         <v>437</v>
       </c>
       <c r="P42" s="17" t="s">
+        <v>824</v>
+      </c>
+      <c r="Q42" s="22" t="s">
         <v>825</v>
       </c>
-      <c r="Q42" s="22" t="s">
-        <v>826</v>
-      </c>
       <c r="R42" s="22" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="43" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B43" s="36"/>
+      <c r="B43" s="39"/>
       <c r="C43" s="5">
         <v>5</v>
       </c>
@@ -14879,17 +14878,17 @@
         <v>70</v>
       </c>
       <c r="P43" s="18" t="s">
+        <v>826</v>
+      </c>
+      <c r="Q43" s="22" t="s">
         <v>827</v>
       </c>
-      <c r="Q43" s="22" t="s">
-        <v>828</v>
-      </c>
       <c r="R43" s="22" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="44" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B44" s="29">
+      <c r="B44" s="32">
         <v>9</v>
       </c>
       <c r="C44" s="6">
@@ -14914,7 +14913,7 @@
         <v>705</v>
       </c>
       <c r="J44" s="19" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="K44" s="19" t="s">
         <v>275</v>
@@ -14929,20 +14928,20 @@
         <v>2</v>
       </c>
       <c r="O44" s="15" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="P44" s="19" t="s">
         <v>278</v>
       </c>
       <c r="Q44" s="28" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="R44" s="22" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="45" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B45" s="30"/>
+      <c r="B45" s="33"/>
       <c r="C45" s="4">
         <v>2</v>
       </c>
@@ -14983,17 +14982,17 @@
         <v>30</v>
       </c>
       <c r="P45" s="17" t="s">
+        <v>831</v>
+      </c>
+      <c r="Q45" s="22" t="s">
         <v>832</v>
       </c>
-      <c r="Q45" s="22" t="s">
-        <v>833</v>
-      </c>
       <c r="R45" s="22" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="46" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B46" s="30"/>
+      <c r="B46" s="33"/>
       <c r="C46" s="4">
         <v>3</v>
       </c>
@@ -15034,17 +15033,17 @@
         <v>711</v>
       </c>
       <c r="P46" s="17" t="s">
+        <v>833</v>
+      </c>
+      <c r="Q46" s="22" t="s">
         <v>834</v>
       </c>
-      <c r="Q46" s="22" t="s">
-        <v>835</v>
-      </c>
       <c r="R46" s="22" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="47" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B47" s="30"/>
+      <c r="B47" s="33"/>
       <c r="C47" s="4">
         <v>4</v>
       </c>
@@ -15067,7 +15066,7 @@
         <v>705</v>
       </c>
       <c r="J47" s="17" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="K47" s="17" t="s">
         <v>274</v>
@@ -15076,7 +15075,7 @@
         <v>25</v>
       </c>
       <c r="M47" s="17" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="N47" s="17" t="s">
         <v>10</v>
@@ -15085,17 +15084,17 @@
         <v>407</v>
       </c>
       <c r="P47" s="17" t="s">
+        <v>836</v>
+      </c>
+      <c r="Q47" s="22" t="s">
         <v>837</v>
       </c>
-      <c r="Q47" s="22" t="s">
-        <v>838</v>
-      </c>
       <c r="R47" s="22" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="48" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B48" s="36"/>
+      <c r="B48" s="39"/>
       <c r="C48" s="5">
         <v>5</v>
       </c>
@@ -15133,20 +15132,20 @@
         <v>770</v>
       </c>
       <c r="O48" s="14" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="P48" s="18" t="s">
+        <v>838</v>
+      </c>
+      <c r="Q48" s="27" t="s">
         <v>839</v>
       </c>
-      <c r="Q48" s="27" t="s">
-        <v>840</v>
-      </c>
       <c r="R48" s="22" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="49" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B49" s="29">
+      <c r="B49" s="32">
         <v>10</v>
       </c>
       <c r="C49" s="6">
@@ -15169,7 +15168,7 @@
         <v>719</v>
       </c>
       <c r="J49" s="19" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="K49" s="19" t="s">
         <v>275</v>
@@ -15190,19 +15189,19 @@
         <v>683</v>
       </c>
       <c r="Q49" s="22" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="R49" s="22" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="50" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B50" s="30"/>
+      <c r="B50" s="33"/>
       <c r="C50" s="4">
         <v>2</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="E50" s="17" t="s">
         <v>275</v>
@@ -15220,7 +15219,7 @@
         <v>778</v>
       </c>
       <c r="J50" s="17" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="K50" s="17" t="s">
         <v>274</v>
@@ -15235,20 +15234,20 @@
         <v>777</v>
       </c>
       <c r="O50" s="13" t="s">
+        <v>841</v>
+      </c>
+      <c r="P50" s="17" t="s">
+        <v>869</v>
+      </c>
+      <c r="Q50" s="22" t="s">
         <v>842</v>
       </c>
-      <c r="P50" s="17" t="s">
-        <v>870</v>
-      </c>
-      <c r="Q50" s="22" t="s">
-        <v>843</v>
-      </c>
       <c r="R50" s="22" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="51" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B51" s="30"/>
+      <c r="B51" s="33"/>
       <c r="C51" s="4">
         <v>3</v>
       </c>
@@ -15265,7 +15264,7 @@
         <v>197</v>
       </c>
       <c r="H51" s="17" t="s">
-        <v>780</v>
+        <v>18</v>
       </c>
       <c r="I51" s="13" t="s">
         <v>87</v>
@@ -15283,7 +15282,7 @@
         <v>101</v>
       </c>
       <c r="N51" s="17" t="s">
-        <v>780</v>
+        <v>18</v>
       </c>
       <c r="O51" s="13" t="s">
         <v>75</v>
@@ -15292,19 +15291,19 @@
         <v>278</v>
       </c>
       <c r="Q51" s="22" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="R51" s="22" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="52" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B52" s="30"/>
+      <c r="B52" s="33"/>
       <c r="C52" s="4">
         <v>4</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="E52" s="17" t="s">
         <v>275</v>
@@ -15322,7 +15321,7 @@
         <v>19</v>
       </c>
       <c r="J52" s="17" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="K52" s="17" t="s">
         <v>274</v>
@@ -15331,26 +15330,26 @@
         <v>40</v>
       </c>
       <c r="M52" s="17" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="N52" s="17" t="s">
         <v>10</v>
       </c>
       <c r="O52" s="13" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="P52" s="17" t="s">
         <v>303</v>
       </c>
       <c r="Q52" s="22" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="R52" s="22" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="53" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="31"/>
+      <c r="B53" s="34"/>
       <c r="C53" s="10">
         <v>5</v>
       </c>
@@ -15367,13 +15366,13 @@
         <v>59</v>
       </c>
       <c r="H53" s="20" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I53" s="16" t="s">
         <v>11</v>
       </c>
       <c r="J53" s="20" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="K53" s="20" t="s">
         <v>275</v>
@@ -15382,19 +15381,19 @@
         <v>25</v>
       </c>
       <c r="M53" s="20" t="s">
+        <v>847</v>
+      </c>
+      <c r="N53" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="O53" s="16" t="s">
         <v>848</v>
       </c>
-      <c r="N53" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="O53" s="16" t="s">
+      <c r="P53" s="20" t="s">
+        <v>870</v>
+      </c>
+      <c r="Q53" s="26" t="s">
         <v>849</v>
-      </c>
-      <c r="P53" s="20" t="s">
-        <v>871</v>
-      </c>
-      <c r="Q53" s="26" t="s">
-        <v>850</v>
       </c>
       <c r="R53" s="22" t="s">
         <v>309</v>
